--- a/solid waste 8.xlsx
+++ b/solid waste 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACFC20CA-52EE-404B-9ED7-1514A964B6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A0A6FA-634D-4E43-A103-3C41E9D4333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2427CC6-936A-426B-A7CF-5A45CB9F5B3A}"/>
   </bookViews>
@@ -364,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -454,28 +454,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -488,20 +476,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EEDBBA-D382-4BEB-8E53-6D5A896A763D}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A90" activeCellId="1" sqref="A1:XFD1 A90:XFD90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,72 +818,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>4.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1.4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>4.3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1.3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>6.8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="2">
@@ -910,52 +900,52 @@
       <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1.5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>5.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>5.3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1.6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>3.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="2">
@@ -972,82 +962,82 @@
       <c r="A10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>26.3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>7.9</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>7.8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>5.2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1.6</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3.3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2.7</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.8</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="2">
@@ -1064,52 +1054,52 @@
       <c r="A16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>3.6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>4.3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1.3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>6</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1.8</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>4.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="2">
@@ -1122,86 +1112,86 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>19.3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>5.8</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>13.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>20.6</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>6.2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>14.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>2.7</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.8</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>1.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>2.5</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.8</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>0.9</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="2">
@@ -1213,28 +1203,27 @@
       <c r="E25" s="2">
         <v>2.4</v>
       </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>5.9</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>1.8</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="2">
@@ -1247,191 +1236,191 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>17.3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>5.2</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>12.1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>7</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>2.1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>3.2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1.5</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>3.6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>10.5</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>3.2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>7.3</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>2.7</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>6.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>8</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>2.4</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>3.4</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>2.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>3.4</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>2.4</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>2.8</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>0.8</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>3.8</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>1.2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>2.6</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>3.1</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="2">
@@ -1448,97 +1437,97 @@
       <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>17.3</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>5.2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>12.1</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>5.8</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>1.7</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>10.7</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>3.2</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>7.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>6.1</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>1.9</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>4.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>0.7</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>1.7</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>4.3</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>1.3</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="2">
@@ -1555,97 +1544,97 @@
       <c r="A48" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>3.7</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>2.6</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>19.7</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>5.9</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>13.8</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>6.1</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>1.9</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>4.3</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>5</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>1.5</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>4</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>1.2</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>2.8</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11"/>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>3.3</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>1</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="2">
@@ -1659,175 +1648,175 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>15.3</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>10.7</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>14.6</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>10.3</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>3.1</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>7.2</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>6.4</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>1.9</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>1.5</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>5</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>1.5</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>5.3</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>1.6</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>3.7</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>3.3</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>1</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>1.3</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>2.8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>6.4</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>1.9</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="10"/>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>8.1</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>2.4</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="2">
@@ -1841,100 +1830,100 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>8.5</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>2.6</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>8.1</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>2.5</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>5.7</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>3.5</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>2.4</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>3.4</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>1</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>2.4</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>2.4</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>0.7</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>1.7</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>5.5</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>1.7</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>3.9</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="10"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="2">
@@ -1948,40 +1937,40 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>10.3</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>3.1</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <v>7.2</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="10"/>
-      <c r="B75" s="6" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>5.2</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>1.6</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>3.6</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="10"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="2">
@@ -1995,130 +1984,130 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>10.5</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>3.2</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <v>7.3</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="13"/>
+      <c r="B78" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>2.5</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>5.7</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="10"/>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="13"/>
+      <c r="B79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>2.5</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>5.7</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="10"/>
-      <c r="B80" s="6" t="s">
+      <c r="A80" s="13"/>
+      <c r="B80" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>5.4</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>1.6</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>3.8</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="10"/>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>3.4</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>1</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>2.4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="10"/>
-      <c r="B82" s="6" t="s">
+      <c r="A82" s="13"/>
+      <c r="B82" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>1.3</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>2.9</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="10"/>
-      <c r="B83" s="6" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>1.4</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>3.2</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="10"/>
-      <c r="B84" s="6" t="s">
+      <c r="A84" s="13"/>
+      <c r="B84" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>0.6</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>1.4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="10"/>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="2">
@@ -2132,39 +2121,39 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>2.5</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <v>5.8</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
-      <c r="B87" s="6" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>6.2</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>1.9</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>4.3</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
@@ -2181,20 +2170,20 @@
     <row r="89" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A55:A66"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A86:A88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
